--- a/src/database/cadastro.xlsx
+++ b/src/database/cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Conecta\Projetos\certificados\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507FC4F4-48C1-47BF-9F3F-B0ECBF2159BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F261B1A5-B5B2-49A2-B8FF-39B0C28719EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD32759E-218E-4E69-8509-D3628A330CB3}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="3056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5068" uniqueCount="3063">
   <si>
     <t>SIGLA</t>
   </si>
@@ -9242,6 +9242,27 @@
   </si>
   <si>
     <t>42.591.651/2348-02</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>Raposo 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Ivo Mario Issac Pires, 1 - Bloco 4 </t>
+  </si>
+  <si>
+    <t>Das Pedras</t>
+  </si>
+  <si>
+    <t>Cotia</t>
+  </si>
+  <si>
+    <t>06720-480</t>
+  </si>
+  <si>
+    <t>42.591.651/2625-04</t>
   </si>
 </sst>
 </file>
@@ -9438,7 +9459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -9554,6 +9575,10 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9990,8 +10015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{055620BD-162D-4E9D-8DED-E86E90033827}" name="Tabela1" displayName="Tabela1" ref="A1:I711" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="A1:I711" xr:uid="{055620BD-162D-4E9D-8DED-E86E90033827}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{055620BD-162D-4E9D-8DED-E86E90033827}" name="Tabela1" displayName="Tabela1" ref="A1:I712" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A1:I712" xr:uid="{055620BD-162D-4E9D-8DED-E86E90033827}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I711">
     <sortCondition ref="A1:A711"/>
   </sortState>
@@ -10340,10 +10365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299F7941-6090-411F-9ADE-332BFB0B85A3}">
-  <dimension ref="A1:K711"/>
+  <dimension ref="A1:K712"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387"/>
+    <sheetView tabSelected="1" topLeftCell="A695" workbookViewId="0">
+      <selection activeCell="A712" sqref="A712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -33112,6 +33137,35 @@
       </c>
       <c r="J711" s="29"/>
       <c r="K711" s="1"/>
+    </row>
+    <row r="712" spans="1:11">
+      <c r="A712" s="25" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B712" s="7" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C712" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D712" s="26" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E712" s="7" t="s">
+        <v>3059</v>
+      </c>
+      <c r="F712" s="7" t="s">
+        <v>3060</v>
+      </c>
+      <c r="G712" s="36" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H712" s="7" t="s">
+        <v>3061</v>
+      </c>
+      <c r="I712" s="7" t="s">
+        <v>3062</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
